--- a/Input/Shell_2D.xlsx
+++ b/Input/Shell_2D.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/Shell - MOD1/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univoftulsa-my.sharepoint.com/personal/elh1873_utulsa_edu/Documents/PHD/Models/Dynamic-Torque-and-Drag-Model/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="876" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D7AB11-22EF-433B-955B-1BBE693E3413}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="114_{9D85A293-3D7E-45E3-94E2-3BBAC28D502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B738A4C6-78F0-4133-9AAD-77F044D400A7}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2580" windowWidth="21600" windowHeight="11295" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SURVEY" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="112">
   <si>
     <t>BHA Type</t>
   </si>
@@ -140,9 +140,6 @@
     <t>cP</t>
   </si>
   <si>
-    <t>lbf/100ft^2</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -191,12 +188,6 @@
     <t>a4</t>
   </si>
   <si>
-    <t>Top Drive RPM Magnitude 1 (RPM)</t>
-  </si>
-  <si>
-    <t>Top Drive RPM Magnitude 2 (RPM)</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -264,12 +255,6 @@
   </si>
   <si>
     <t>Element Length</t>
-  </si>
-  <si>
-    <t>Top Drive Axial Velocity Magnitude 1 (ft/min)</t>
-  </si>
-  <si>
-    <t>Top Drive Axial Velocity Magnitude 2 (ft/min)</t>
   </si>
   <si>
     <t>Shear Modulus</t>
@@ -367,6 +352,36 @@
   </si>
   <si>
     <t>Flow Rate</t>
+  </si>
+  <si>
+    <t>Top Drive ROP 1</t>
+  </si>
+  <si>
+    <t>Top Drive ROP 2</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>Top Drive RPM 1</t>
+  </si>
+  <si>
+    <t>Top Drive RPM 2</t>
+  </si>
+  <si>
+    <t>Top Drive Weight</t>
+  </si>
+  <si>
+    <t>ft/min</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -816,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB77188-32FA-43EE-BD2E-FA6085E2DDB4}">
   <dimension ref="A1:D687"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,34 +4891,34 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>1500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
         <v>120</v>
@@ -5002,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -5037,7 +5052,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5075,7 +5090,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -5113,7 +5128,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -5390,7 +5405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -5411,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -5446,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5486,7 +5501,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -5525,7 +5540,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -5564,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -5603,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>27</v>
@@ -5642,7 +5657,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -5687,7 +5702,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5726,7 +5741,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -5771,7 +5786,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -5816,7 +5831,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -5855,7 +5870,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -5894,7 +5909,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -5933,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -5972,7 +5987,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -6011,7 +6026,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -6050,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -6086,10 +6101,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1">
         <v>29</v>
@@ -6128,7 +6143,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -6167,7 +6182,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -6206,7 +6221,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -6245,7 +6260,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -6284,7 +6299,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -6323,7 +6338,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -6362,7 +6377,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -6401,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -6440,7 +6455,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -6479,7 +6494,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -6518,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -6557,7 +6572,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -6596,7 +6611,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -7562,7 +7577,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7581,12 +7596,12 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>9.4</v>
@@ -7597,7 +7612,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>65.5</v>
@@ -7622,56 +7637,61 @@
         <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1">
         <f>15000</f>
         <v>15000</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -7691,7 +7711,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,84 +7730,84 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>12.25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>13500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="9">
         <v>79300000000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9">
         <v>210000000000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7808,7 +7828,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="E23" sqref="E23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7826,18 +7846,18 @@
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
         <v>600</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7847,10 +7867,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF5AC9-A478-4C3E-B910-9FDDED31D199}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7858,140 +7878,187 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B3" s="6">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="6">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="6">
+        <v>65</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="6">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="6">
+        <v>80000</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="6">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
